--- a/data/SSG_processed.xlsx
+++ b/data/SSG_processed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\Glitter\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Private\GitHub\Analysis-of-local-healthcare-imbalances\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA219AD7-842C-4178-AF7F-C60093BB4087}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB63D35-AD95-4F39-8E18-48B2A4DDE22D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="276">
   <si>
     <t>시도</t>
   </si>
@@ -839,19 +839,42 @@
   </si>
   <si>
     <t>SSG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부천시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경상북도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -870,6 +893,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -879,6 +910,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -924,28 +961,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="7">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 20" xfId="1" xr:uid="{3133EBB6-AAC3-41D5-B45C-2354D93165CE}"/>
+    <cellStyle name="표준 10" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="표준 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="표준 20" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="표준 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="표준 4" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1245,19 +1299,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E283"/>
+  <dimension ref="A1:E286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" style="3"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1273,8 +1324,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
         <v>11110</v>
       </c>
       <c r="B2" t="s">
@@ -1290,8 +1341,8 @@
         <v>126.9793579</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
         <v>11140</v>
       </c>
       <c r="B3" t="s">
@@ -1307,8 +1358,8 @@
         <v>126.9979403</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
         <v>11170</v>
       </c>
       <c r="B4" t="s">
@@ -1324,8 +1375,8 @@
         <v>126.96544419999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
         <v>11200</v>
       </c>
       <c r="B5" t="s">
@@ -1341,8 +1392,8 @@
         <v>127.0371025</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
         <v>11215</v>
       </c>
       <c r="B6" t="s">
@@ -1358,8 +1409,8 @@
         <v>127.0822938</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
         <v>11230</v>
       </c>
       <c r="B7" t="s">
@@ -1375,8 +1426,8 @@
         <v>127.04001890000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
         <v>11260</v>
       </c>
       <c r="B8" t="s">
@@ -1392,8 +1443,8 @@
         <v>127.09265190000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
         <v>11290</v>
       </c>
       <c r="B9" t="s">
@@ -1409,8 +1460,8 @@
         <v>127.01821459999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
         <v>11305</v>
       </c>
       <c r="B10" t="s">
@@ -1426,8 +1477,8 @@
         <v>127.02565749999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
         <v>11320</v>
       </c>
       <c r="B11" t="s">
@@ -1443,8 +1494,8 @@
         <v>127.0470706</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
         <v>11350</v>
       </c>
       <c r="B12" t="s">
@@ -1460,8 +1511,8 @@
         <v>127.056793</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
         <v>11380</v>
       </c>
       <c r="B13" t="s">
@@ -1477,8 +1528,8 @@
         <v>126.9291119</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
         <v>11410</v>
       </c>
       <c r="B14" t="s">
@@ -1494,8 +1545,8 @@
         <v>126.93677889999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
         <v>11440</v>
       </c>
       <c r="B15" t="s">
@@ -1511,8 +1562,8 @@
         <v>126.9084211</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
         <v>11470</v>
       </c>
       <c r="B16" t="s">
@@ -1528,8 +1579,8 @@
         <v>126.8663985</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
         <v>11500</v>
       </c>
       <c r="B17" t="s">
@@ -1545,8 +1596,8 @@
         <v>126.8495382</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
         <v>11530</v>
       </c>
       <c r="B18" t="s">
@@ -1562,8 +1613,8 @@
         <v>126.88736900000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
         <v>11545</v>
       </c>
       <c r="B19" t="s">
@@ -1579,8 +1630,8 @@
         <v>126.90203579999999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="2">
         <v>11560</v>
       </c>
       <c r="B20" t="s">
@@ -1596,8 +1647,8 @@
         <v>126.8962283</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="2">
         <v>11590</v>
       </c>
       <c r="B21" t="s">
@@ -1613,8 +1664,8 @@
         <v>126.93925249999999</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="2">
         <v>11620</v>
       </c>
       <c r="B22" t="s">
@@ -1630,8 +1681,8 @@
         <v>126.95161330000001</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="2">
         <v>11650</v>
       </c>
       <c r="B23" t="s">
@@ -1647,8 +1698,8 @@
         <v>127.0324112</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="2">
         <v>11680</v>
       </c>
       <c r="B24" t="s">
@@ -1664,8 +1715,8 @@
         <v>127.0473248</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="2">
         <v>11710</v>
       </c>
       <c r="B25" t="s">
@@ -1681,8 +1732,8 @@
         <v>127.1065971</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="2">
         <v>11740</v>
       </c>
       <c r="B26" t="s">
@@ -1698,8 +1749,8 @@
         <v>127.123762</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="2">
         <v>26110</v>
       </c>
       <c r="B27" t="s">
@@ -1715,8 +1766,8 @@
         <v>129.03234169999999</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="2">
         <v>26140</v>
       </c>
       <c r="B28" t="s">
@@ -1732,8 +1783,8 @@
         <v>129.0241207</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="2">
         <v>26170</v>
       </c>
       <c r="B29" t="s">
@@ -1749,8 +1800,8 @@
         <v>129.05692250000001</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="2">
         <v>26200</v>
       </c>
       <c r="B30" t="s">
@@ -1766,8 +1817,8 @@
         <v>129.0681448</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" s="2">
         <v>26230</v>
       </c>
       <c r="B31" t="s">
@@ -1783,8 +1834,8 @@
         <v>129.05317220000001</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="2">
         <v>26260</v>
       </c>
       <c r="B32" t="s">
@@ -1800,8 +1851,8 @@
         <v>129.08364019999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" s="2">
         <v>26290</v>
       </c>
       <c r="B33" t="s">
@@ -1817,8 +1868,8 @@
         <v>129.08436399999999</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" s="2">
         <v>26320</v>
       </c>
       <c r="B34" t="s">
@@ -1834,8 +1885,8 @@
         <v>128.9903711</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" s="2">
         <v>26350</v>
       </c>
       <c r="B35" t="s">
@@ -1851,8 +1902,8 @@
         <v>129.16355089999999</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" s="2">
         <v>26380</v>
       </c>
       <c r="B36" t="s">
@@ -1868,8 +1919,8 @@
         <v>128.97470809999999</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" s="2">
         <v>26410</v>
       </c>
       <c r="B37" t="s">
@@ -1885,8 +1936,8 @@
         <v>129.09227730000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" s="2">
         <v>26440</v>
       </c>
       <c r="B38" t="s">
@@ -1902,8 +1953,8 @@
         <v>128.9805666</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" s="2">
         <v>26470</v>
       </c>
       <c r="B39" t="s">
@@ -1919,8 +1970,8 @@
         <v>129.0797244</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" s="2">
         <v>26500</v>
       </c>
       <c r="B40" t="s">
@@ -1936,8 +1987,8 @@
         <v>129.11308310000001</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" s="2">
         <v>26530</v>
       </c>
       <c r="B41" t="s">
@@ -1953,8 +2004,8 @@
         <v>128.9908173</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" s="2">
         <v>26710</v>
       </c>
       <c r="B42" t="s">
@@ -1970,8 +2021,8 @@
         <v>129.22215420000001</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" s="2">
         <v>27110</v>
       </c>
       <c r="B43" t="s">
@@ -1987,8 +2038,8 @@
         <v>128.60616659999999</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" s="2">
         <v>27140</v>
       </c>
       <c r="B44" t="s">
@@ -2004,8 +2055,8 @@
         <v>128.6353024</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" s="2">
         <v>27170</v>
       </c>
       <c r="B45" t="s">
@@ -2021,8 +2072,8 @@
         <v>128.55911499999999</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" s="2">
         <v>27200</v>
       </c>
       <c r="B46" t="s">
@@ -2038,8 +2089,8 @@
         <v>128.5975291</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" s="2">
         <v>27230</v>
       </c>
       <c r="B47" t="s">
@@ -2055,8 +2106,8 @@
         <v>128.58280730000001</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" s="2">
         <v>27260</v>
       </c>
       <c r="B48" t="s">
@@ -2072,8 +2123,8 @@
         <v>128.63060859999999</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" s="2">
         <v>27290</v>
       </c>
       <c r="B49" t="s">
@@ -2089,8 +2140,8 @@
         <v>128.5327576</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" s="2">
         <v>27710</v>
       </c>
       <c r="B50" t="s">
@@ -2106,8 +2157,8 @@
         <v>128.43171369999999</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" s="2">
         <v>28110</v>
       </c>
       <c r="B51" t="s">
@@ -2123,8 +2174,8 @@
         <v>126.6214796</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" s="2">
         <v>28140</v>
       </c>
       <c r="B52" t="s">
@@ -2140,8 +2191,8 @@
         <v>126.6433385</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" s="2">
         <v>28170</v>
       </c>
       <c r="B53" t="s">
@@ -2157,502 +2208,502 @@
         <v>126.6504771</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
-        <v>28185</v>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" s="2">
+        <v>28177</v>
       </c>
       <c r="B54" t="s">
         <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D54">
-        <v>37.4094099</v>
+        <v>37.463680799999999</v>
       </c>
       <c r="E54">
-        <v>126.6783088</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
-        <v>28200</v>
+        <v>126.6504771</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" s="2">
+        <v>28185</v>
       </c>
       <c r="B55" t="s">
         <v>49</v>
       </c>
       <c r="C55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D55">
-        <v>37.446989299999998</v>
+        <v>37.4094099</v>
       </c>
       <c r="E55">
-        <v>126.7319416</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
-        <v>28237</v>
+        <v>126.6783088</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" s="2">
+        <v>28200</v>
       </c>
       <c r="B56" t="s">
         <v>49</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D56">
-        <v>37.506981799999998</v>
+        <v>37.446989299999998</v>
       </c>
       <c r="E56">
-        <v>126.7217739</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
-        <v>28245</v>
+        <v>126.7319416</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" s="2">
+        <v>28237</v>
       </c>
       <c r="B57" t="s">
         <v>49</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D57">
-        <v>37.536950399999988</v>
+        <v>37.506981799999998</v>
       </c>
       <c r="E57">
-        <v>126.73774349999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
-        <v>28260</v>
+        <v>126.7217739</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58" s="2">
+        <v>28245</v>
       </c>
       <c r="B58" t="s">
         <v>49</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D58">
-        <v>37.5454212</v>
+        <v>37.536950399999988</v>
       </c>
       <c r="E58">
-        <v>126.6759723</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
-        <v>28710</v>
+        <v>126.73774349999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59" s="2">
+        <v>28260</v>
       </c>
       <c r="B59" t="s">
         <v>49</v>
       </c>
       <c r="C59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59">
+        <v>37.5454212</v>
+      </c>
+      <c r="E59">
+        <v>126.6759723</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" s="2">
+        <v>28710</v>
+      </c>
+      <c r="B60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" t="s">
         <v>54</v>
       </c>
-      <c r="D59">
+      <c r="D60">
         <v>37.746726299999999</v>
       </c>
-      <c r="E59">
+      <c r="E60">
         <v>126.4878731</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61" s="2">
         <v>29110</v>
-      </c>
-      <c r="B60" t="s">
-        <v>55</v>
-      </c>
-      <c r="C60" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60">
-        <v>35.146104200000003</v>
-      </c>
-      <c r="E60">
-        <v>126.9231228</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
-        <v>29140</v>
       </c>
       <c r="B61" t="s">
         <v>55</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D61">
-        <v>35.152824799999998</v>
+        <v>35.146104200000003</v>
       </c>
       <c r="E61">
-        <v>126.8910977</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="4">
-        <v>29155</v>
+        <v>126.9231228</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62" s="2">
+        <v>29140</v>
       </c>
       <c r="B62" t="s">
         <v>55</v>
       </c>
       <c r="C62" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D62">
-        <v>35.122106799999997</v>
+        <v>35.152824799999998</v>
       </c>
       <c r="E62">
-        <v>126.9079579</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
-        <v>29170</v>
+        <v>126.8910977</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63" s="2">
+        <v>29155</v>
       </c>
       <c r="B63" t="s">
         <v>55</v>
       </c>
       <c r="C63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D63">
-        <v>35.174016700000003</v>
+        <v>35.122106799999997</v>
       </c>
       <c r="E63">
-        <v>126.91198420000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="4">
-        <v>29200</v>
+        <v>126.9079579</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A64" s="2">
+        <v>29170</v>
       </c>
       <c r="B64" t="s">
         <v>55</v>
       </c>
       <c r="C64" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64">
+        <v>35.174016700000003</v>
+      </c>
+      <c r="E64">
+        <v>126.91198420000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65" s="2">
+        <v>29200</v>
+      </c>
+      <c r="B65" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" t="s">
         <v>56</v>
       </c>
-      <c r="D64">
+      <c r="D65">
         <v>35.139463800000001</v>
       </c>
-      <c r="E64">
+      <c r="E65">
         <v>126.79371829999999</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="4">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66" s="2">
         <v>30110</v>
-      </c>
-      <c r="B65" t="s">
-        <v>57</v>
-      </c>
-      <c r="C65" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65">
-        <v>36.326998600000003</v>
-      </c>
-      <c r="E65">
-        <v>127.43268260000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="4">
-        <v>30140</v>
       </c>
       <c r="B66" t="s">
         <v>57</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D66">
-        <v>36.325304600000003</v>
+        <v>36.326998600000003</v>
       </c>
       <c r="E66">
-        <v>127.4212387</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="4">
-        <v>30170</v>
+        <v>127.43268260000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67" s="2">
+        <v>30140</v>
       </c>
       <c r="B67" t="s">
         <v>57</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D67">
-        <v>36.3545224</v>
+        <v>36.325304600000003</v>
       </c>
       <c r="E67">
-        <v>127.38360249999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="4">
-        <v>30200</v>
+        <v>127.4212387</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A68" s="2">
+        <v>30170</v>
       </c>
       <c r="B68" t="s">
         <v>57</v>
       </c>
       <c r="C68" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D68">
-        <v>36.362215999999997</v>
+        <v>36.3545224</v>
       </c>
       <c r="E68">
-        <v>127.35613290000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="4">
-        <v>30230</v>
+        <v>127.38360249999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69" s="2">
+        <v>30200</v>
       </c>
       <c r="B69" t="s">
         <v>57</v>
       </c>
       <c r="C69" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69">
+        <v>36.362215999999997</v>
+      </c>
+      <c r="E69">
+        <v>127.35613290000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70" s="2">
+        <v>30230</v>
+      </c>
+      <c r="B70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" t="s">
         <v>59</v>
       </c>
-      <c r="D69">
+      <c r="D70">
         <v>36.346718899999999</v>
       </c>
-      <c r="E69">
+      <c r="E70">
         <v>127.4155717</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="4">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A71" s="2">
         <v>31110</v>
-      </c>
-      <c r="B70" t="s">
-        <v>60</v>
-      </c>
-      <c r="C70" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70">
-        <v>35.568791100000013</v>
-      </c>
-      <c r="E70">
-        <v>129.33213480000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="4">
-        <v>31140</v>
       </c>
       <c r="B71" t="s">
         <v>60</v>
       </c>
       <c r="C71" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D71">
-        <v>35.543683000000009</v>
+        <v>35.568791100000013</v>
       </c>
       <c r="E71">
-        <v>129.32980169999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="4">
-        <v>31170</v>
+        <v>129.33213480000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A72" s="2">
+        <v>31140</v>
       </c>
       <c r="B72" t="s">
         <v>60</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D72">
-        <v>35.5048563</v>
+        <v>35.543683000000009</v>
       </c>
       <c r="E72">
-        <v>129.4166007</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="4">
-        <v>31200</v>
+        <v>129.32980169999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A73" s="2">
+        <v>31170</v>
       </c>
       <c r="B73" t="s">
         <v>60</v>
       </c>
       <c r="C73" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D73">
-        <v>35.582733999999988</v>
+        <v>35.5048563</v>
       </c>
       <c r="E73">
-        <v>129.36090870000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="4">
-        <v>31710</v>
+        <v>129.4166007</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A74" s="2">
+        <v>31200</v>
       </c>
       <c r="B74" t="s">
         <v>60</v>
       </c>
       <c r="C74" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74">
+        <v>35.582733999999988</v>
+      </c>
+      <c r="E74">
+        <v>129.36090870000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A75" s="2">
+        <v>31710</v>
+      </c>
+      <c r="B75" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" t="s">
         <v>61</v>
       </c>
-      <c r="D74">
+      <c r="D75">
         <v>35.54</v>
       </c>
-      <c r="E74">
+      <c r="E75">
         <v>129.19999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="4">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A76" s="2">
         <v>36110</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>62</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>62</v>
       </c>
-      <c r="D75">
-        <v>36.6950456</v>
-      </c>
-      <c r="E75">
-        <v>127.296936</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="4">
+      <c r="D76">
+        <v>36.479999999999997</v>
+      </c>
+      <c r="E76">
+        <v>127.29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A77" s="2">
         <v>41111</v>
       </c>
-      <c r="B76" t="s">
-        <v>63</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B77" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" t="s">
         <v>64</v>
       </c>
-      <c r="D76">
+      <c r="D77">
         <v>37.303817700000003</v>
       </c>
-      <c r="E76">
+      <c r="E77">
         <v>127.0099185</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="4">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A78" s="2">
         <v>41113</v>
       </c>
-      <c r="B77" t="s">
-        <v>63</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B78" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" t="s">
         <v>65</v>
       </c>
-      <c r="D77">
+      <c r="D78">
         <v>37.257211699999999</v>
       </c>
-      <c r="E77">
+      <c r="E78">
         <v>126.9722014</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="4">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A79" s="2">
         <v>41115</v>
       </c>
-      <c r="B78" t="s">
-        <v>63</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B79" t="s">
+        <v>63</v>
+      </c>
+      <c r="C79" t="s">
         <v>66</v>
       </c>
-      <c r="D78">
+      <c r="D79">
         <v>37.286098299999999</v>
       </c>
-      <c r="E78">
+      <c r="E79">
         <v>127.0349995</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="4">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A80" s="2">
         <v>41117</v>
       </c>
-      <c r="B79" t="s">
-        <v>63</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B80" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" t="s">
         <v>67</v>
       </c>
-      <c r="D79">
+      <c r="D80">
         <v>37.259489700000003</v>
       </c>
-      <c r="E79">
+      <c r="E80">
         <v>127.0466381</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="4">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A81" s="2">
         <v>41131</v>
       </c>
-      <c r="B80" t="s">
-        <v>63</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B81" t="s">
+        <v>63</v>
+      </c>
+      <c r="C81" t="s">
         <v>68</v>
       </c>
-      <c r="D80">
+      <c r="D81">
         <v>37.450246200000002</v>
       </c>
-      <c r="E80">
+      <c r="E81">
         <v>127.1455402</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="4">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A82" s="2">
         <v>41133</v>
       </c>
-      <c r="B81" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B82" t="s">
+        <v>63</v>
+      </c>
+      <c r="C82" t="s">
         <v>69</v>
       </c>
-      <c r="D81">
+      <c r="D82">
         <v>37.430443500000003</v>
       </c>
-      <c r="E81">
+      <c r="E82">
         <v>127.1372635</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="4">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A83" s="2">
         <v>41135</v>
-      </c>
-      <c r="B82" t="s">
-        <v>63</v>
-      </c>
-      <c r="C82" t="s">
-        <v>70</v>
-      </c>
-      <c r="D82">
-        <v>37.382699000000002</v>
-      </c>
-      <c r="E82">
-        <v>127.1189057</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="4">
-        <v>41139</v>
       </c>
       <c r="B83" t="s">
         <v>63</v>
@@ -2667,94 +2718,94 @@
         <v>127.1189057</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="4">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A84" s="2">
+        <v>41139</v>
+      </c>
+      <c r="B84" t="s">
+        <v>63</v>
+      </c>
+      <c r="C84" t="s">
+        <v>70</v>
+      </c>
+      <c r="D84">
+        <v>37.382699000000002</v>
+      </c>
+      <c r="E84">
+        <v>127.1189057</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A85" s="2">
         <v>41150</v>
       </c>
-      <c r="B84" t="s">
-        <v>63</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B85" t="s">
+        <v>63</v>
+      </c>
+      <c r="C85" t="s">
         <v>71</v>
       </c>
-      <c r="D84">
+      <c r="D85">
         <v>37.738098000000008</v>
       </c>
-      <c r="E84">
+      <c r="E85">
         <v>127.0336819</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="4">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A86" s="2">
         <v>41171</v>
       </c>
-      <c r="B85" t="s">
-        <v>63</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B86" t="s">
+        <v>63</v>
+      </c>
+      <c r="C86" t="s">
         <v>72</v>
       </c>
-      <c r="D85">
+      <c r="D86">
         <v>37.3864722</v>
       </c>
-      <c r="E85">
+      <c r="E86">
         <v>126.9323127</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="4">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A87" s="2">
         <v>41173</v>
       </c>
-      <c r="B86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B87" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" t="s">
         <v>73</v>
       </c>
-      <c r="D86">
+      <c r="D87">
         <v>37.392583799999997</v>
       </c>
-      <c r="E86">
+      <c r="E87">
         <v>126.9514497</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="4">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A88" s="2">
+        <v>41190</v>
+      </c>
+      <c r="B88" t="s">
+        <v>273</v>
+      </c>
+      <c r="C88" t="s">
+        <v>274</v>
+      </c>
+      <c r="D88">
+        <v>37.496595200000002</v>
+      </c>
+      <c r="E88">
+        <v>126.7870738</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A89" s="2">
         <v>41192</v>
-      </c>
-      <c r="B87" t="s">
-        <v>63</v>
-      </c>
-      <c r="C87" t="s">
-        <v>74</v>
-      </c>
-      <c r="D87">
-        <v>37.496595200000002</v>
-      </c>
-      <c r="E87">
-        <v>126.7870738</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="4">
-        <v>41194</v>
-      </c>
-      <c r="B88" t="s">
-        <v>63</v>
-      </c>
-      <c r="C88" t="s">
-        <v>75</v>
-      </c>
-      <c r="D88">
-        <v>37.480292400000003</v>
-      </c>
-      <c r="E88">
-        <v>126.800017</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="4">
-        <v>41195</v>
       </c>
       <c r="B89" t="s">
         <v>63</v>
@@ -2769,9 +2820,9 @@
         <v>126.7870738</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="4">
-        <v>41197</v>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A90" s="2">
+        <v>41194</v>
       </c>
       <c r="B90" t="s">
         <v>63</v>
@@ -2786,678 +2837,678 @@
         <v>126.800017</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="4">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A91" s="2">
+        <v>41195</v>
+      </c>
+      <c r="B91" t="s">
+        <v>63</v>
+      </c>
+      <c r="C91" t="s">
+        <v>74</v>
+      </c>
+      <c r="D91">
+        <v>37.496595200000002</v>
+      </c>
+      <c r="E91">
+        <v>126.7870738</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A92" s="2">
+        <v>41197</v>
+      </c>
+      <c r="B92" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92" t="s">
+        <v>75</v>
+      </c>
+      <c r="D92">
+        <v>37.480292400000003</v>
+      </c>
+      <c r="E92">
+        <v>126.800017</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A93" s="2">
         <v>41199</v>
       </c>
-      <c r="B91" t="s">
-        <v>63</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B93" t="s">
+        <v>63</v>
+      </c>
+      <c r="C93" t="s">
         <v>76</v>
       </c>
-      <c r="D91">
+      <c r="D93">
         <v>37.531657699999997</v>
       </c>
-      <c r="E91">
+      <c r="E93">
         <v>126.7853836</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="4">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A94" s="2">
         <v>41210</v>
       </c>
-      <c r="B92" t="s">
-        <v>63</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B94" t="s">
+        <v>63</v>
+      </c>
+      <c r="C94" t="s">
         <v>77</v>
       </c>
-      <c r="D92">
+      <c r="D94">
         <v>37.478487800000003</v>
       </c>
-      <c r="E92">
+      <c r="E94">
         <v>126.8642888</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="4">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A95" s="3">
         <v>41220</v>
       </c>
-      <c r="B93" t="s">
-        <v>63</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B95" t="s">
+        <v>63</v>
+      </c>
+      <c r="C95" t="s">
         <v>78</v>
       </c>
-      <c r="D93">
+      <c r="D95">
         <v>36.992107500000003</v>
       </c>
-      <c r="E93">
+      <c r="E95">
         <v>127.1129451</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="4">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A96" s="2">
         <v>41222</v>
       </c>
-      <c r="B94" t="s">
-        <v>63</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B96" t="s">
+        <v>63</v>
+      </c>
+      <c r="C96" t="s">
         <v>79</v>
       </c>
-      <c r="D94">
+      <c r="D96">
         <v>37.066597299999998</v>
       </c>
-      <c r="E94">
+      <c r="E96">
         <v>127.0649473</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="4">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A97" s="2">
         <v>41224</v>
       </c>
-      <c r="B95" t="s">
-        <v>63</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B97" t="s">
+        <v>63</v>
+      </c>
+      <c r="C97" t="s">
         <v>80</v>
       </c>
-      <c r="D95">
+      <c r="D97">
         <v>36.989854100000002</v>
       </c>
-      <c r="E95">
+      <c r="E97">
         <v>126.9196857</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="4">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A98" s="2">
         <v>41250</v>
       </c>
-      <c r="B96" t="s">
-        <v>63</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="B98" t="s">
+        <v>63</v>
+      </c>
+      <c r="C98" t="s">
         <v>81</v>
       </c>
-      <c r="D96">
+      <c r="D98">
         <v>37.903411200000001</v>
       </c>
-      <c r="E96">
+      <c r="E98">
         <v>127.0605075</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="4">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A99" s="2">
         <v>41270</v>
       </c>
-      <c r="B97" t="s">
-        <v>63</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="B99" t="s">
+        <v>63</v>
+      </c>
+      <c r="C99" t="s">
         <v>82</v>
       </c>
-      <c r="D97">
+      <c r="D99">
         <v>37.321877800000003</v>
       </c>
-      <c r="E97">
+      <c r="E99">
         <v>126.83088480000001</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="4">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A100" s="2">
         <v>41271</v>
       </c>
-      <c r="B98" t="s">
-        <v>63</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B100" t="s">
+        <v>63</v>
+      </c>
+      <c r="C100" t="s">
         <v>83</v>
       </c>
-      <c r="D98">
+      <c r="D100">
         <v>37.301231100000003</v>
       </c>
-      <c r="E98">
+      <c r="E100">
         <v>126.84507360000001</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="4">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A101" s="2">
         <v>41273</v>
       </c>
-      <c r="B99" t="s">
-        <v>63</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B101" t="s">
+        <v>63</v>
+      </c>
+      <c r="C101" t="s">
         <v>84</v>
       </c>
-      <c r="D99">
+      <c r="D101">
         <v>37.319395299999996</v>
       </c>
-      <c r="E99">
+      <c r="E101">
         <v>126.8123263</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="4">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A102" s="2">
         <v>41281</v>
       </c>
-      <c r="B100" t="s">
-        <v>63</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B102" t="s">
+        <v>63</v>
+      </c>
+      <c r="C102" t="s">
         <v>85</v>
       </c>
-      <c r="D100">
+      <c r="D102">
         <v>37.637245800000002</v>
       </c>
-      <c r="E100">
+      <c r="E102">
         <v>126.83220439999999</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="4">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A103" s="2">
         <v>41283</v>
       </c>
-      <c r="B101" t="s">
-        <v>63</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="B103" t="s">
+        <v>63</v>
+      </c>
+      <c r="C103" t="s">
         <v>86</v>
       </c>
-      <c r="D101">
+      <c r="D103">
         <v>37.6585751</v>
       </c>
-      <c r="E101">
+      <c r="E103">
         <v>126.77490349999999</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="4">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A104" s="2">
         <v>41285</v>
       </c>
-      <c r="B102" t="s">
-        <v>63</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B104" t="s">
+        <v>63</v>
+      </c>
+      <c r="C104" t="s">
         <v>87</v>
       </c>
-      <c r="D102">
+      <c r="D104">
         <v>37.6585751</v>
       </c>
-      <c r="E102">
+      <c r="E104">
         <v>126.77490349999999</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="4">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A105" s="2">
         <v>41287</v>
       </c>
-      <c r="B103" t="s">
-        <v>63</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B105" t="s">
+        <v>63</v>
+      </c>
+      <c r="C105" t="s">
         <v>88</v>
       </c>
-      <c r="D103">
+      <c r="D105">
         <v>37.675433599999998</v>
       </c>
-      <c r="E103">
+      <c r="E105">
         <v>126.7505994</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="4">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A106" s="2">
         <v>41290</v>
       </c>
-      <c r="B104" t="s">
-        <v>63</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B106" t="s">
+        <v>63</v>
+      </c>
+      <c r="C106" t="s">
         <v>89</v>
       </c>
-      <c r="D104">
+      <c r="D106">
         <v>37.429245999999999</v>
       </c>
-      <c r="E104">
+      <c r="E106">
         <v>126.9874451</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="4">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A107" s="2">
         <v>41310</v>
       </c>
-      <c r="B105" t="s">
-        <v>63</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="B107" t="s">
+        <v>63</v>
+      </c>
+      <c r="C107" t="s">
         <v>90</v>
       </c>
-      <c r="D105">
+      <c r="D107">
         <v>37.5943124</v>
       </c>
-      <c r="E105">
+      <c r="E107">
         <v>127.12956459999999</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="4">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A108" s="2">
         <v>41360</v>
       </c>
-      <c r="B106" t="s">
-        <v>63</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B108" t="s">
+        <v>63</v>
+      </c>
+      <c r="C108" t="s">
         <v>91</v>
       </c>
-      <c r="D106">
+      <c r="D108">
         <v>37.6360028</v>
       </c>
-      <c r="E106">
+      <c r="E108">
         <v>127.2165279</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="4">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A109" s="2">
         <v>41370</v>
       </c>
-      <c r="B107" t="s">
-        <v>63</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B109" t="s">
+        <v>63</v>
+      </c>
+      <c r="C109" t="s">
         <v>92</v>
       </c>
-      <c r="D107">
+      <c r="D109">
         <v>37.149809599999998</v>
       </c>
-      <c r="E107">
+      <c r="E109">
         <v>127.0772212</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="4">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A110" s="2">
         <v>41390</v>
       </c>
-      <c r="B108" t="s">
-        <v>63</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B110" t="s">
+        <v>63</v>
+      </c>
+      <c r="C110" t="s">
         <v>93</v>
       </c>
-      <c r="D108">
+      <c r="D110">
         <v>37.379887699999998</v>
       </c>
-      <c r="E108">
+      <c r="E110">
         <v>126.80310249999999</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="4">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A111" s="2">
         <v>41410</v>
       </c>
-      <c r="B109" t="s">
-        <v>63</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="B111" t="s">
+        <v>63</v>
+      </c>
+      <c r="C111" t="s">
         <v>94</v>
       </c>
-      <c r="D109">
+      <c r="D111">
         <v>37.3616703</v>
       </c>
-      <c r="E109">
+      <c r="E111">
         <v>126.9351741</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="4">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A112" s="2">
         <v>41430</v>
       </c>
-      <c r="B110" t="s">
-        <v>63</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="B112" t="s">
+        <v>63</v>
+      </c>
+      <c r="C112" t="s">
         <v>95</v>
       </c>
-      <c r="D110">
+      <c r="D112">
         <v>37.344701000000001</v>
       </c>
-      <c r="E110">
+      <c r="E112">
         <v>126.96831039999999</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="4">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A113" s="2">
         <v>41450</v>
       </c>
-      <c r="B111" t="s">
-        <v>63</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="B113" t="s">
+        <v>63</v>
+      </c>
+      <c r="C113" t="s">
         <v>96</v>
       </c>
-      <c r="D111">
+      <c r="D113">
         <v>37.539264600000003</v>
       </c>
-      <c r="E111">
+      <c r="E113">
         <v>127.2148919</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="4">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A114" s="2">
         <v>41460</v>
       </c>
-      <c r="B112" t="s">
-        <v>63</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="B114" t="s">
+        <v>63</v>
+      </c>
+      <c r="C114" t="s">
         <v>97</v>
       </c>
-      <c r="D112">
+      <c r="D114">
         <v>37.2410864</v>
       </c>
-      <c r="E112">
+      <c r="E114">
         <v>127.1775537</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="4">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A115" s="2">
         <v>41461</v>
       </c>
-      <c r="B113" t="s">
-        <v>63</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="B115" t="s">
+        <v>63</v>
+      </c>
+      <c r="C115" t="s">
         <v>98</v>
       </c>
-      <c r="D113">
+      <c r="D115">
         <v>37.234440599999999</v>
       </c>
-      <c r="E113">
+      <c r="E115">
         <v>127.2013458</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="4">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A116" s="2">
         <v>41463</v>
       </c>
-      <c r="B114" t="s">
-        <v>63</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C116" t="s">
         <v>99</v>
       </c>
-      <c r="D114">
+      <c r="D116">
         <v>37.280155399999998</v>
       </c>
-      <c r="E114">
+      <c r="E116">
         <v>127.114659</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="4">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A117" s="2">
         <v>41465</v>
       </c>
-      <c r="B115" t="s">
-        <v>63</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B117" t="s">
+        <v>63</v>
+      </c>
+      <c r="C117" t="s">
         <v>100</v>
       </c>
-      <c r="D115">
+      <c r="D117">
         <v>37.322150000000001</v>
       </c>
-      <c r="E115">
+      <c r="E117">
         <v>127.0974374</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="4">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A118" s="2">
         <v>41470</v>
       </c>
-      <c r="B116" t="s">
-        <v>63</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="B118" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" t="s">
         <v>97</v>
       </c>
-      <c r="D116">
+      <c r="D118">
         <v>37.2410864</v>
       </c>
-      <c r="E116">
+      <c r="E118">
         <v>127.1775537</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="4">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A119" s="2">
         <v>41480</v>
       </c>
-      <c r="B117" t="s">
-        <v>63</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="B119" t="s">
+        <v>63</v>
+      </c>
+      <c r="C119" t="s">
         <v>101</v>
       </c>
-      <c r="D117">
+      <c r="D119">
         <v>37.7598688</v>
       </c>
-      <c r="E117">
+      <c r="E119">
         <v>126.7801781</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="4">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A120" s="2">
         <v>41490</v>
       </c>
-      <c r="B118" t="s">
-        <v>63</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="B120" t="s">
+        <v>63</v>
+      </c>
+      <c r="C120" t="s">
         <v>101</v>
       </c>
-      <c r="D118">
+      <c r="D120">
         <v>37.7598688</v>
       </c>
-      <c r="E118">
+      <c r="E120">
         <v>126.7801781</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="4">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A121" s="2">
         <v>41500</v>
       </c>
-      <c r="B119" t="s">
-        <v>63</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B121" t="s">
+        <v>63</v>
+      </c>
+      <c r="C121" t="s">
         <v>102</v>
       </c>
-      <c r="D119">
+      <c r="D121">
         <v>37.271995199999999</v>
       </c>
-      <c r="E119">
+      <c r="E121">
         <v>127.43482210000001</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="4">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A122" s="2">
         <v>41510</v>
       </c>
-      <c r="B120" t="s">
-        <v>63</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="B122" t="s">
+        <v>63</v>
+      </c>
+      <c r="C122" t="s">
         <v>102</v>
       </c>
-      <c r="D120">
+      <c r="D122">
         <v>37.271995199999999</v>
       </c>
-      <c r="E120">
+      <c r="E122">
         <v>127.43482210000001</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="4">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A123" s="2">
         <v>41550</v>
       </c>
-      <c r="B121" t="s">
-        <v>63</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="B123" t="s">
+        <v>63</v>
+      </c>
+      <c r="C123" t="s">
         <v>103</v>
       </c>
-      <c r="D121">
+      <c r="D123">
         <v>37.007969500000002</v>
       </c>
-      <c r="E121">
+      <c r="E123">
         <v>127.2796786</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="4">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A124" s="2">
         <v>41570</v>
       </c>
-      <c r="B122" t="s">
-        <v>63</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="B124" t="s">
+        <v>63</v>
+      </c>
+      <c r="C124" t="s">
         <v>104</v>
       </c>
-      <c r="D122">
+      <c r="D124">
         <v>37.615246399999997</v>
       </c>
-      <c r="E122">
+      <c r="E124">
         <v>126.7156325</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="4">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A125" s="2">
         <v>41590</v>
       </c>
-      <c r="B123" t="s">
-        <v>63</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="B125" t="s">
+        <v>63</v>
+      </c>
+      <c r="C125" t="s">
         <v>105</v>
       </c>
-      <c r="D123">
+      <c r="D125">
         <v>37.199493199999999</v>
       </c>
-      <c r="E123">
+      <c r="E125">
         <v>126.8311887</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="4">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A126" s="2">
         <v>41592</v>
       </c>
-      <c r="B124" t="s">
-        <v>63</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="B126" t="s">
+        <v>63</v>
+      </c>
+      <c r="C126" t="s">
         <v>106</v>
       </c>
-      <c r="D124">
+      <c r="D126">
         <v>37.2087462</v>
       </c>
-      <c r="E124">
+      <c r="E126">
         <v>127.0358906</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="4">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A127" s="2">
         <v>41610</v>
       </c>
-      <c r="B125" t="s">
-        <v>63</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B127" t="s">
+        <v>63</v>
+      </c>
+      <c r="C127" t="s">
         <v>107</v>
       </c>
-      <c r="D125">
+      <c r="D127">
         <v>37.417141299999997</v>
       </c>
-      <c r="E125">
+      <c r="E127">
         <v>127.2561413</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="4">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A128" s="2">
         <v>41630</v>
       </c>
-      <c r="B126" t="s">
-        <v>63</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="B128" t="s">
+        <v>63</v>
+      </c>
+      <c r="C128" t="s">
         <v>108</v>
       </c>
-      <c r="D126">
+      <c r="D128">
         <v>37.785287500000003</v>
       </c>
-      <c r="E126">
+      <c r="E128">
         <v>127.0458453</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="4">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A129" s="2">
         <v>41650</v>
       </c>
-      <c r="B127" t="s">
-        <v>63</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="B129" t="s">
+        <v>63</v>
+      </c>
+      <c r="C129" t="s">
         <v>109</v>
       </c>
-      <c r="D127">
+      <c r="D129">
         <v>37.894914800000002</v>
       </c>
-      <c r="E127">
+      <c r="E129">
         <v>127.2003551</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="4">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A130" s="2">
         <v>41670</v>
       </c>
-      <c r="B128" t="s">
-        <v>63</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="B130" t="s">
+        <v>63</v>
+      </c>
+      <c r="C130" t="s">
         <v>110</v>
-      </c>
-      <c r="D128">
-        <v>37.298023700000002</v>
-      </c>
-      <c r="E128">
-        <v>127.6371628</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="4">
-        <v>41710</v>
-      </c>
-      <c r="B129" t="s">
-        <v>63</v>
-      </c>
-      <c r="C129" t="s">
-        <v>111</v>
-      </c>
-      <c r="D129">
-        <v>37.785287500000003</v>
-      </c>
-      <c r="E129">
-        <v>127.0458453</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="4">
-        <v>41730</v>
-      </c>
-      <c r="B130" t="s">
-        <v>63</v>
-      </c>
-      <c r="C130" t="s">
-        <v>112</v>
       </c>
       <c r="D130">
         <v>37.298023700000002</v>
@@ -3466,2157 +3517,2157 @@
         <v>127.6371628</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="4">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A131" s="2">
+        <v>41710</v>
+      </c>
+      <c r="B131" t="s">
+        <v>63</v>
+      </c>
+      <c r="C131" t="s">
+        <v>111</v>
+      </c>
+      <c r="D131">
+        <v>37.785287500000003</v>
+      </c>
+      <c r="E131">
+        <v>127.0458453</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A132" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B132" t="s">
+        <v>63</v>
+      </c>
+      <c r="C132" t="s">
+        <v>112</v>
+      </c>
+      <c r="D132">
+        <v>37.298023700000002</v>
+      </c>
+      <c r="E132">
+        <v>127.6371628</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A133" s="2">
         <v>41750</v>
       </c>
-      <c r="B131" t="s">
-        <v>63</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="B133" t="s">
+        <v>63</v>
+      </c>
+      <c r="C133" t="s">
         <v>113</v>
       </c>
-      <c r="D131">
+      <c r="D133">
         <v>37.199493199999999</v>
       </c>
-      <c r="E131">
+      <c r="E133">
         <v>126.8311887</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="4">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A134" s="2">
         <v>41790</v>
       </c>
-      <c r="B132" t="s">
-        <v>63</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="B134" t="s">
+        <v>63</v>
+      </c>
+      <c r="C134" t="s">
         <v>114</v>
       </c>
-      <c r="D132">
+      <c r="D134">
         <v>37.417141299999997</v>
       </c>
-      <c r="E132">
+      <c r="E134">
         <v>127.2561413</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="4">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A135" s="2">
         <v>41800</v>
       </c>
-      <c r="B133" t="s">
-        <v>63</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="B135" t="s">
+        <v>63</v>
+      </c>
+      <c r="C135" t="s">
         <v>115</v>
       </c>
-      <c r="D133">
+      <c r="D135">
         <v>38.096443800000003</v>
       </c>
-      <c r="E133">
+      <c r="E135">
         <v>127.0748335</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="4">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A136" s="2">
         <v>41810</v>
       </c>
-      <c r="B134" t="s">
-        <v>63</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="B136" t="s">
+        <v>63</v>
+      </c>
+      <c r="C136" t="s">
         <v>116</v>
       </c>
-      <c r="D134">
+      <c r="D136">
         <v>37.894914800000002</v>
       </c>
-      <c r="E134">
+      <c r="E136">
         <v>127.2003551</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="4">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A137" s="2">
         <v>41820</v>
       </c>
-      <c r="B135" t="s">
-        <v>63</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="B137" t="s">
+        <v>63</v>
+      </c>
+      <c r="C137" t="s">
         <v>117</v>
       </c>
-      <c r="D135">
+      <c r="D137">
         <v>37.8315403</v>
       </c>
-      <c r="E135">
+      <c r="E137">
         <v>127.50988270000001</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="4">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A138" s="2">
         <v>41830</v>
       </c>
-      <c r="B136" t="s">
-        <v>63</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="B138" t="s">
+        <v>63</v>
+      </c>
+      <c r="C138" t="s">
         <v>118</v>
       </c>
-      <c r="D136">
+      <c r="D138">
         <v>37.4912195</v>
       </c>
-      <c r="E136">
+      <c r="E138">
         <v>127.4875607</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="4">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A139" s="2">
         <v>41860</v>
       </c>
-      <c r="B137" t="s">
-        <v>63</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="B139" t="s">
+        <v>63</v>
+      </c>
+      <c r="C139" t="s">
         <v>119</v>
       </c>
-      <c r="D137">
+      <c r="D139">
         <v>37.007969500000002</v>
       </c>
-      <c r="E137">
+      <c r="E139">
         <v>127.2796786</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="4">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A140" s="2">
         <v>41870</v>
       </c>
-      <c r="B138" t="s">
-        <v>63</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="B140" t="s">
+        <v>63</v>
+      </c>
+      <c r="C140" t="s">
         <v>120</v>
       </c>
-      <c r="D138">
+      <c r="D140">
         <v>37.615246399999997</v>
       </c>
-      <c r="E138">
+      <c r="E140">
         <v>126.7156325</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="4">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A141" s="2">
         <v>42110</v>
-      </c>
-      <c r="B139" t="s">
-        <v>121</v>
-      </c>
-      <c r="C139" t="s">
-        <v>122</v>
-      </c>
-      <c r="D139">
-        <v>37.881315299999997</v>
-      </c>
-      <c r="E139">
-        <v>127.7299707</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="4">
-        <v>42130</v>
-      </c>
-      <c r="B140" t="s">
-        <v>121</v>
-      </c>
-      <c r="C140" t="s">
-        <v>123</v>
-      </c>
-      <c r="D140">
-        <v>37.342218600000002</v>
-      </c>
-      <c r="E140">
-        <v>127.9201621</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="4">
-        <v>42150</v>
       </c>
       <c r="B141" t="s">
         <v>121</v>
       </c>
       <c r="C141" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D141">
-        <v>37.751852999999997</v>
+        <v>37.881315299999997</v>
       </c>
       <c r="E141">
-        <v>128.87605740000001</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="4">
-        <v>42170</v>
+        <v>127.7299707</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A142" s="3">
+        <v>42130</v>
       </c>
       <c r="B142" t="s">
         <v>121</v>
       </c>
       <c r="C142" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D142">
-        <v>37.5247192</v>
+        <v>37.342218600000002</v>
       </c>
       <c r="E142">
-        <v>129.11429150000001</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="4">
-        <v>42190</v>
+        <v>127.9201621</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A143" s="2">
+        <v>42150</v>
       </c>
       <c r="B143" t="s">
         <v>121</v>
       </c>
       <c r="C143" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D143">
-        <v>37.164065399999998</v>
+        <v>37.751852999999997</v>
       </c>
       <c r="E143">
-        <v>128.98556490000001</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="4">
-        <v>42210</v>
+        <v>128.87605740000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A144" s="2">
+        <v>42170</v>
       </c>
       <c r="B144" t="s">
         <v>121</v>
       </c>
       <c r="C144" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D144">
-        <v>38.207014800000003</v>
+        <v>37.5247192</v>
       </c>
       <c r="E144">
-        <v>128.5918489</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="4">
-        <v>42230</v>
+        <v>129.11429150000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A145" s="2">
+        <v>42190</v>
       </c>
       <c r="B145" t="s">
         <v>121</v>
       </c>
       <c r="C145" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D145">
-        <v>37.449868299999999</v>
+        <v>37.164065399999998</v>
       </c>
       <c r="E145">
-        <v>129.16520589999999</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="4">
-        <v>42720</v>
+        <v>128.98556490000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A146" s="2">
+        <v>42210</v>
       </c>
       <c r="B146" t="s">
         <v>121</v>
       </c>
       <c r="C146" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D146">
-        <v>37.696951800000001</v>
+        <v>38.207014800000003</v>
       </c>
       <c r="E146">
-        <v>127.8886827</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="4">
-        <v>42730</v>
+        <v>128.59184880000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A147" s="2">
+        <v>42230</v>
       </c>
       <c r="B147" t="s">
         <v>121</v>
       </c>
       <c r="C147" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D147">
-        <v>37.491756600000002</v>
+        <v>37.449868299999999</v>
       </c>
       <c r="E147">
-        <v>127.98492950000001</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="4">
-        <v>42750</v>
+        <v>129.16520589999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A148" s="2">
+        <v>42720</v>
       </c>
       <c r="B148" t="s">
         <v>121</v>
       </c>
       <c r="C148" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D148">
-        <v>37.183636999999997</v>
+        <v>37.696951800000001</v>
       </c>
       <c r="E148">
-        <v>128.46175349999999</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="4">
-        <v>42760</v>
+        <v>127.8886827</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A149" s="2">
+        <v>42730</v>
       </c>
       <c r="B149" t="s">
         <v>121</v>
       </c>
       <c r="C149" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D149">
-        <v>37.370474000000002</v>
+        <v>37.491756600000002</v>
       </c>
       <c r="E149">
-        <v>128.38997689999999</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="4">
-        <v>42770</v>
+        <v>127.98492950000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A150" s="2">
+        <v>42750</v>
       </c>
       <c r="B150" t="s">
         <v>121</v>
       </c>
       <c r="C150" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D150">
-        <v>37.380754899999999</v>
+        <v>37.183636999999997</v>
       </c>
       <c r="E150">
-        <v>128.66095050000001</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="4">
-        <v>42780</v>
+        <v>128.46175349999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A151" s="2">
+        <v>42760</v>
       </c>
       <c r="B151" t="s">
         <v>121</v>
       </c>
       <c r="C151" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D151">
-        <v>38.146608999999998</v>
+        <v>37.370474000000002</v>
       </c>
       <c r="E151">
-        <v>127.3132256</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="4">
-        <v>42790</v>
+        <v>128.38997689999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A152" s="2">
+        <v>42770</v>
       </c>
       <c r="B152" t="s">
         <v>121</v>
       </c>
       <c r="C152" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D152">
-        <v>38.110070100000002</v>
+        <v>37.380754899999999</v>
       </c>
       <c r="E152">
-        <v>127.98988249999999</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="4">
-        <v>42810</v>
+        <v>128.66095050000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A153" s="2">
+        <v>42780</v>
       </c>
       <c r="B153" t="s">
         <v>121</v>
       </c>
       <c r="C153" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D153">
-        <v>38.069467500000002</v>
+        <v>38.146608999999998</v>
       </c>
       <c r="E153">
-        <v>128.17069910000001</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="4">
-        <v>42820</v>
+        <v>127.3132256</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A154" s="2">
+        <v>42790</v>
       </c>
       <c r="B154" t="s">
         <v>121</v>
       </c>
       <c r="C154" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D154">
-        <v>38.380129199999999</v>
+        <v>38.110070100000002</v>
       </c>
       <c r="E154">
-        <v>128.46743849999999</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="4">
-        <v>42830</v>
+        <v>127.98988249999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A155" s="2">
+        <v>42810</v>
       </c>
       <c r="B155" t="s">
         <v>121</v>
       </c>
       <c r="C155" t="s">
+        <v>136</v>
+      </c>
+      <c r="D155">
+        <v>38.069467500000002</v>
+      </c>
+      <c r="E155">
+        <v>128.17069910000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A156" s="2">
+        <v>42820</v>
+      </c>
+      <c r="B156" t="s">
+        <v>121</v>
+      </c>
+      <c r="C156" t="s">
+        <v>137</v>
+      </c>
+      <c r="D156">
+        <v>38.380129199999999</v>
+      </c>
+      <c r="E156">
+        <v>128.46743849999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A157" s="2">
+        <v>42830</v>
+      </c>
+      <c r="B157" t="s">
+        <v>121</v>
+      </c>
+      <c r="C157" t="s">
         <v>138</v>
       </c>
-      <c r="D155">
+      <c r="D157">
         <v>38.0753925</v>
       </c>
-      <c r="E155">
+      <c r="E157">
         <v>128.61885029999999</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="4">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A158" s="2">
         <v>43111</v>
-      </c>
-      <c r="B156" t="s">
-        <v>139</v>
-      </c>
-      <c r="C156" t="s">
-        <v>140</v>
-      </c>
-      <c r="D156">
-        <v>36.651044499999998</v>
-      </c>
-      <c r="E156">
-        <v>127.48702950000001</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="4">
-        <v>43112</v>
-      </c>
-      <c r="B157" t="s">
-        <v>139</v>
-      </c>
-      <c r="C157" t="s">
-        <v>141</v>
-      </c>
-      <c r="D157">
-        <v>36.637595400000002</v>
-      </c>
-      <c r="E157">
-        <v>127.47021719999999</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="4">
-        <v>43113</v>
       </c>
       <c r="B158" t="s">
         <v>139</v>
       </c>
       <c r="C158" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D158">
-        <v>36.637017899999996</v>
+        <v>36.651044499999998</v>
       </c>
       <c r="E158">
-        <v>127.46967050000001</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="4">
-        <v>43114</v>
+        <v>127.48702950000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A159" s="2">
+        <v>43112</v>
       </c>
       <c r="B159" t="s">
         <v>139</v>
       </c>
       <c r="C159" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D159">
-        <v>36.651565599999998</v>
+        <v>36.642434100000003</v>
       </c>
       <c r="E159">
-        <v>127.48669870000001</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="4">
-        <v>43130</v>
+        <v>127.4890319</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A160" s="2">
+        <v>43113</v>
       </c>
       <c r="B160" t="s">
         <v>139</v>
       </c>
       <c r="C160" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D160">
-        <v>36.991011299999997</v>
+        <v>36.637017899999996</v>
       </c>
       <c r="E160">
-        <v>127.9259497</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="4">
-        <v>43150</v>
+        <v>127.46967050000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A161" s="2">
+        <v>43114</v>
       </c>
       <c r="B161" t="s">
         <v>139</v>
       </c>
       <c r="C161" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D161">
-        <v>37.1325821</v>
+        <v>36.642434100000003</v>
       </c>
       <c r="E161">
-        <v>128.19094810000001</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="4">
-        <v>43710</v>
+        <v>127.4890319</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A162" s="2">
+        <v>43130</v>
       </c>
       <c r="B162" t="s">
         <v>139</v>
       </c>
       <c r="C162" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D162">
-        <v>36.557305800000002</v>
+        <v>36.991011299999997</v>
       </c>
       <c r="E162">
-        <v>127.53213409999999</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="4">
-        <v>43720</v>
+        <v>127.9259497</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A163" s="2">
+        <v>43150</v>
       </c>
       <c r="B163" t="s">
         <v>139</v>
       </c>
       <c r="C163" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D163">
-        <v>36.489457299999998</v>
+        <v>37.1325821</v>
       </c>
       <c r="E163">
-        <v>127.72948270000001</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="4">
-        <v>43730</v>
+        <v>128.19094810000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A164" s="2">
+        <v>43710</v>
       </c>
       <c r="B164" t="s">
         <v>139</v>
       </c>
       <c r="C164" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D164">
-        <v>36.306364599999988</v>
+        <v>36.557305800000002</v>
       </c>
       <c r="E164">
-        <v>127.5712809</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="4">
-        <v>43740</v>
+        <v>127.53213409999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A165" s="2">
+        <v>43720</v>
       </c>
       <c r="B165" t="s">
         <v>139</v>
       </c>
       <c r="C165" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D165">
-        <v>36.175023099999997</v>
+        <v>36.489457299999998</v>
       </c>
       <c r="E165">
-        <v>127.7834302</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="4">
-        <v>43745</v>
+        <v>127.72948270000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A166" s="2">
+        <v>43730</v>
       </c>
       <c r="B166" t="s">
         <v>139</v>
       </c>
       <c r="C166" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D166">
-        <v>36.7855019</v>
+        <v>36.306364599999988</v>
       </c>
       <c r="E166">
-        <v>127.5816556</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="4">
-        <v>43750</v>
+        <v>127.5712809</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A167" s="2">
+        <v>43740</v>
       </c>
       <c r="B167" t="s">
         <v>139</v>
       </c>
       <c r="C167" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D167">
-        <v>36.855379800000001</v>
+        <v>36.175023099999997</v>
       </c>
       <c r="E167">
-        <v>127.4361117</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="4">
-        <v>43760</v>
+        <v>127.7834302</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A168" s="2">
+        <v>43745</v>
       </c>
       <c r="B168" t="s">
         <v>139</v>
       </c>
       <c r="C168" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D168">
-        <v>36.815669</v>
+        <v>36.7855019</v>
       </c>
       <c r="E168">
-        <v>127.7865791</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="4">
-        <v>43770</v>
+        <v>127.5816556</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A169" s="2">
+        <v>43750</v>
       </c>
       <c r="B169" t="s">
         <v>139</v>
       </c>
       <c r="C169" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D169">
-        <v>36.9396792</v>
+        <v>36.855379800000001</v>
       </c>
       <c r="E169">
-        <v>127.69050180000001</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="4">
-        <v>43800</v>
+        <v>127.4361117</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A170" s="2">
+        <v>43760</v>
       </c>
       <c r="B170" t="s">
         <v>139</v>
       </c>
       <c r="C170" t="s">
+        <v>152</v>
+      </c>
+      <c r="D170">
+        <v>36.815669</v>
+      </c>
+      <c r="E170">
+        <v>127.7865791</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A171" s="2">
+        <v>43770</v>
+      </c>
+      <c r="B171" t="s">
+        <v>139</v>
+      </c>
+      <c r="C171" t="s">
+        <v>153</v>
+      </c>
+      <c r="D171">
+        <v>36.9396792</v>
+      </c>
+      <c r="E171">
+        <v>127.69050180000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A172" s="2">
+        <v>43800</v>
+      </c>
+      <c r="B172" t="s">
+        <v>139</v>
+      </c>
+      <c r="C172" t="s">
         <v>154</v>
       </c>
-      <c r="D170">
+      <c r="D172">
         <v>36.984547300000003</v>
       </c>
-      <c r="E170">
+      <c r="E172">
         <v>128.3655186</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="4">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A173" s="2">
         <v>44130</v>
-      </c>
-      <c r="B171" t="s">
-        <v>155</v>
-      </c>
-      <c r="C171" t="s">
-        <v>156</v>
-      </c>
-      <c r="D171">
-        <v>36.815128999999999</v>
-      </c>
-      <c r="E171">
-        <v>127.11389389999999</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="4">
-        <v>44131</v>
-      </c>
-      <c r="B172" t="s">
-        <v>155</v>
-      </c>
-      <c r="C172" t="s">
-        <v>157</v>
-      </c>
-      <c r="D172">
-        <v>36.806990999999996</v>
-      </c>
-      <c r="E172">
-        <v>127.150335</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="4">
-        <v>44133</v>
       </c>
       <c r="B173" t="s">
         <v>155</v>
       </c>
       <c r="C173" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D173">
-        <v>36.8785965</v>
+        <v>36.815128999999999</v>
       </c>
       <c r="E173">
-        <v>127.143142</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="4">
-        <v>44150</v>
+        <v>127.11389389999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A174" s="2">
+        <v>44131</v>
       </c>
       <c r="B174" t="s">
         <v>155</v>
       </c>
       <c r="C174" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D174">
-        <v>36.4465346</v>
+        <v>36.806990999999996</v>
       </c>
       <c r="E174">
-        <v>127.1191534</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="4">
-        <v>44180</v>
+        <v>127.150335</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A175" s="2">
+        <v>44133</v>
       </c>
       <c r="B175" t="s">
         <v>155</v>
       </c>
       <c r="C175" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D175">
-        <v>36.333162899999998</v>
+        <v>36.8785965</v>
       </c>
       <c r="E175">
-        <v>126.61294410000001</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="4">
-        <v>44200</v>
+        <v>127.143142</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A176" s="2">
+        <v>44150</v>
       </c>
       <c r="B176" t="s">
         <v>155</v>
       </c>
       <c r="C176" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D176">
-        <v>36.789796000000003</v>
+        <v>36.4465346</v>
       </c>
       <c r="E176">
-        <v>127.0018494</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="4">
-        <v>44210</v>
+        <v>127.1191534</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A177" s="2">
+        <v>44180</v>
       </c>
       <c r="B177" t="s">
         <v>155</v>
       </c>
       <c r="C177" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D177">
-        <v>36.7844993</v>
+        <v>36.333162899999998</v>
       </c>
       <c r="E177">
-        <v>126.4503169</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="4">
-        <v>44230</v>
+        <v>126.61294410000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A178" s="2">
+        <v>44200</v>
       </c>
       <c r="B178" t="s">
         <v>155</v>
       </c>
       <c r="C178" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D178">
-        <v>36.187065599999997</v>
+        <v>36.789796000000003</v>
       </c>
       <c r="E178">
-        <v>127.0987453</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="4">
-        <v>44250</v>
+        <v>127.0018494</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A179" s="2">
+        <v>44210</v>
       </c>
       <c r="B179" t="s">
         <v>155</v>
       </c>
       <c r="C179" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D179">
-        <v>36.274557700000003</v>
+        <v>36.7844993</v>
       </c>
       <c r="E179">
-        <v>127.2485896</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="4">
-        <v>44270</v>
+        <v>126.4503169</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A180" s="2">
+        <v>44230</v>
       </c>
       <c r="B180" t="s">
         <v>155</v>
       </c>
       <c r="C180" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D180">
-        <v>36.893610899999999</v>
+        <v>36.187065599999997</v>
       </c>
       <c r="E180">
-        <v>126.62832779999999</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="4">
-        <v>44710</v>
+        <v>127.0987453</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A181" s="2">
+        <v>44250</v>
       </c>
       <c r="B181" t="s">
         <v>155</v>
       </c>
       <c r="C181" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D181">
-        <v>36.1086928</v>
+        <v>36.274557700000003</v>
       </c>
       <c r="E181">
-        <v>127.48807119999999</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="4">
-        <v>44730</v>
+        <v>127.2485896</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A182" s="2">
+        <v>44270</v>
       </c>
       <c r="B182" t="s">
         <v>155</v>
       </c>
       <c r="C182" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D182">
-        <v>36.592880999999998</v>
+        <v>36.893610899999999</v>
       </c>
       <c r="E182">
-        <v>127.2923268</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="4">
-        <v>44760</v>
+        <v>126.62832779999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A183" s="2">
+        <v>44710</v>
       </c>
       <c r="B183" t="s">
         <v>155</v>
       </c>
       <c r="C183" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D183">
-        <v>36.275440600000003</v>
+        <v>36.1086928</v>
       </c>
       <c r="E183">
-        <v>126.910178</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="4">
-        <v>44770</v>
+        <v>127.48807119999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A184" s="2">
+        <v>44730</v>
       </c>
       <c r="B184" t="s">
         <v>155</v>
       </c>
       <c r="C184" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D184">
-        <v>36.080331200000003</v>
+        <v>36.592880999999998</v>
       </c>
       <c r="E184">
-        <v>126.6913277</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="4">
-        <v>44790</v>
+        <v>127.2923268</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A185" s="2">
+        <v>44760</v>
       </c>
       <c r="B185" t="s">
         <v>155</v>
       </c>
       <c r="C185" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D185">
-        <v>36.458832600000001</v>
+        <v>36.275440600000003</v>
       </c>
       <c r="E185">
-        <v>126.80221160000001</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="4">
-        <v>44800</v>
+        <v>126.910178</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A186" s="2">
+        <v>44770</v>
       </c>
       <c r="B186" t="s">
         <v>155</v>
       </c>
       <c r="C186" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D186">
-        <v>36.601230000000001</v>
+        <v>36.080331200000003</v>
       </c>
       <c r="E186">
-        <v>126.6607764</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="4">
-        <v>44810</v>
+        <v>126.6913277</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A187" s="2">
+        <v>44790</v>
       </c>
       <c r="B187" t="s">
         <v>155</v>
       </c>
       <c r="C187" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D187">
-        <v>36.682612300000002</v>
+        <v>36.458832600000001</v>
       </c>
       <c r="E187">
-        <v>126.8483951</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="4">
-        <v>44825</v>
+        <v>126.80221160000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A188" s="2">
+        <v>44800</v>
       </c>
       <c r="B188" t="s">
         <v>155</v>
       </c>
       <c r="C188" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D188">
-        <v>36.745642099999998</v>
+        <v>36.601230000000001</v>
       </c>
       <c r="E188">
-        <v>126.29805279999999</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="4">
-        <v>44830</v>
+        <v>126.6607764</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A189" s="2">
+        <v>44810</v>
       </c>
       <c r="B189" t="s">
         <v>155</v>
       </c>
       <c r="C189" t="s">
+        <v>172</v>
+      </c>
+      <c r="D189">
+        <v>36.682612300000002</v>
+      </c>
+      <c r="E189">
+        <v>126.8483951</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A190" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B190" t="s">
+        <v>155</v>
+      </c>
+      <c r="C190" t="s">
+        <v>173</v>
+      </c>
+      <c r="D190">
+        <v>36.745642099999998</v>
+      </c>
+      <c r="E190">
+        <v>126.29805279999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A191" s="2">
+        <v>44830</v>
+      </c>
+      <c r="B191" t="s">
+        <v>155</v>
+      </c>
+      <c r="C191" t="s">
         <v>174</v>
       </c>
-      <c r="D189">
+      <c r="D191">
         <v>36.893610899999999</v>
       </c>
-      <c r="E189">
+      <c r="E191">
         <v>126.62832779999999</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="4">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A192" s="2">
         <v>45111</v>
-      </c>
-      <c r="B190" t="s">
-        <v>175</v>
-      </c>
-      <c r="C190" t="s">
-        <v>176</v>
-      </c>
-      <c r="D190">
-        <v>35.812111000000002</v>
-      </c>
-      <c r="E190">
-        <v>127.1199201</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="4">
-        <v>45113</v>
-      </c>
-      <c r="B191" t="s">
-        <v>175</v>
-      </c>
-      <c r="C191" t="s">
-        <v>177</v>
-      </c>
-      <c r="D191">
-        <v>35.829387199999999</v>
-      </c>
-      <c r="E191">
-        <v>127.1343073</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="4">
-        <v>45130</v>
       </c>
       <c r="B192" t="s">
         <v>175</v>
       </c>
       <c r="C192" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D192">
-        <v>35.967677199999997</v>
+        <v>35.812111000000002</v>
       </c>
       <c r="E192">
-        <v>126.7366293</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="4">
-        <v>45140</v>
+        <v>127.1199201</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A193" s="2">
+        <v>45113</v>
       </c>
       <c r="B193" t="s">
         <v>175</v>
       </c>
       <c r="C193" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D193">
-        <v>35.948285800000001</v>
+        <v>35.829387199999999</v>
       </c>
       <c r="E193">
-        <v>126.9575991</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="4">
-        <v>45180</v>
+        <v>127.1343073</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A194" s="2">
+        <v>45130</v>
       </c>
       <c r="B194" t="s">
         <v>175</v>
       </c>
       <c r="C194" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D194">
-        <v>35.569885499999998</v>
+        <v>35.967677199999997</v>
       </c>
       <c r="E194">
-        <v>126.8558955</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="4">
-        <v>45190</v>
+        <v>126.7366293</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A195" s="2">
+        <v>45140</v>
       </c>
       <c r="B195" t="s">
         <v>175</v>
       </c>
       <c r="C195" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D195">
-        <v>35.416356999999998</v>
+        <v>35.948285800000001</v>
       </c>
       <c r="E195">
-        <v>127.39048769999999</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="4">
-        <v>45210</v>
+        <v>126.9575991</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A196" s="2">
+        <v>45180</v>
       </c>
       <c r="B196" t="s">
         <v>175</v>
       </c>
       <c r="C196" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D196">
-        <v>35.803607900000003</v>
+        <v>35.569885499999998</v>
       </c>
       <c r="E196">
-        <v>126.8808872</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="4">
-        <v>45710</v>
+        <v>126.8558955</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A197" s="2">
+        <v>45190</v>
       </c>
       <c r="B197" t="s">
         <v>175</v>
       </c>
       <c r="C197" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D197">
-        <v>35.891275</v>
+        <v>35.416356999999998</v>
       </c>
       <c r="E197">
-        <v>127.253895</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="4">
-        <v>45720</v>
+        <v>127.39048769999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A198" s="2">
+        <v>45210</v>
       </c>
       <c r="B198" t="s">
         <v>175</v>
       </c>
       <c r="C198" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D198">
-        <v>35.791729699999998</v>
+        <v>35.803607900000003</v>
       </c>
       <c r="E198">
-        <v>127.42483559999999</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="4">
-        <v>45730</v>
+        <v>126.8808872</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A199" s="2">
+        <v>45710</v>
       </c>
       <c r="B199" t="s">
         <v>175</v>
       </c>
       <c r="C199" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D199">
-        <v>36.006819100000001</v>
+        <v>35.891275</v>
       </c>
       <c r="E199">
-        <v>127.6607805</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="4">
-        <v>45740</v>
+        <v>127.253895</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A200" s="2">
+        <v>45720</v>
       </c>
       <c r="B200" t="s">
         <v>175</v>
       </c>
       <c r="C200" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D200">
-        <v>35.647276699999999</v>
+        <v>35.791729699999998</v>
       </c>
       <c r="E200">
-        <v>127.52113629999999</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="4">
-        <v>45750</v>
+        <v>127.42483559999999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A201" s="3">
+        <v>45730</v>
       </c>
       <c r="B201" t="s">
         <v>175</v>
       </c>
       <c r="C201" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D201">
-        <v>35.611054899999999</v>
+        <v>36.006819100000001</v>
       </c>
       <c r="E201">
-        <v>127.2826599</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="4">
-        <v>45770</v>
+        <v>127.6607805</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A202" s="3">
+        <v>45740</v>
       </c>
       <c r="B202" t="s">
         <v>175</v>
       </c>
       <c r="C202" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D202">
-        <v>35.374413599999997</v>
+        <v>35.647276699999999</v>
       </c>
       <c r="E202">
-        <v>127.1375968</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="4">
-        <v>45790</v>
+        <v>127.52113629999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A203" s="2">
+        <v>45750</v>
       </c>
       <c r="B203" t="s">
         <v>175</v>
       </c>
       <c r="C203" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D203">
-        <v>35.435821599999997</v>
+        <v>35.611054899999999</v>
       </c>
       <c r="E203">
-        <v>126.7020806</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="4">
-        <v>45800</v>
+        <v>127.2826599</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A204" s="2">
+        <v>45770</v>
       </c>
       <c r="B204" t="s">
         <v>175</v>
       </c>
       <c r="C204" t="s">
+        <v>188</v>
+      </c>
+      <c r="D204">
+        <v>35.374413599999997</v>
+      </c>
+      <c r="E204">
+        <v>127.1375968</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A205" s="2">
+        <v>45790</v>
+      </c>
+      <c r="B205" t="s">
+        <v>175</v>
+      </c>
+      <c r="C205" t="s">
+        <v>189</v>
+      </c>
+      <c r="D205">
+        <v>35.435821599999997</v>
+      </c>
+      <c r="E205">
+        <v>126.7020806</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A206" s="2">
+        <v>45800</v>
+      </c>
+      <c r="B206" t="s">
+        <v>175</v>
+      </c>
+      <c r="C206" t="s">
         <v>190</v>
       </c>
-      <c r="D204">
+      <c r="D206">
         <v>35.731566099999988</v>
       </c>
-      <c r="E204">
+      <c r="E206">
         <v>126.7334651</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="4">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A207" s="2">
         <v>46110</v>
-      </c>
-      <c r="B205" t="s">
-        <v>191</v>
-      </c>
-      <c r="C205" t="s">
-        <v>192</v>
-      </c>
-      <c r="D205">
-        <v>34.811835100000003</v>
-      </c>
-      <c r="E205">
-        <v>126.39216639999999</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="4">
-        <v>46130</v>
-      </c>
-      <c r="B206" t="s">
-        <v>191</v>
-      </c>
-      <c r="C206" t="s">
-        <v>193</v>
-      </c>
-      <c r="D206">
-        <v>34.760373700000002</v>
-      </c>
-      <c r="E206">
-        <v>127.66222209999999</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="4">
-        <v>46150</v>
       </c>
       <c r="B207" t="s">
         <v>191</v>
       </c>
       <c r="C207" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D207">
-        <v>34.950637</v>
+        <v>34.811835100000003</v>
       </c>
       <c r="E207">
-        <v>127.4872135</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" s="4">
-        <v>46170</v>
+        <v>126.39216639999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A208" s="2">
+        <v>46130</v>
       </c>
       <c r="B208" t="s">
         <v>191</v>
       </c>
       <c r="C208" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D208">
-        <v>35.016060099999997</v>
+        <v>34.760373700000002</v>
       </c>
       <c r="E208">
-        <v>126.7107572</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="4">
-        <v>46190</v>
+        <v>127.66222209999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A209" s="2">
+        <v>46150</v>
       </c>
       <c r="B209" t="s">
         <v>191</v>
       </c>
       <c r="C209" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D209">
-        <v>34.813962500000002</v>
+        <v>34.950637</v>
       </c>
       <c r="E209">
-        <v>127.73116589999999</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="4">
-        <v>46230</v>
+        <v>127.4872135</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A210" s="2">
+        <v>46170</v>
       </c>
       <c r="B210" t="s">
         <v>191</v>
       </c>
       <c r="C210" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D210">
-        <v>34.940696799999998</v>
+        <v>35.016060099999997</v>
       </c>
       <c r="E210">
-        <v>127.6958882</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="4">
-        <v>46710</v>
+        <v>126.7107572</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A211" s="2">
+        <v>46190</v>
       </c>
       <c r="B211" t="s">
         <v>191</v>
       </c>
       <c r="C211" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D211">
-        <v>35.3211394</v>
+        <v>34.867899999999999</v>
       </c>
       <c r="E211">
-        <v>126.9881673</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" s="4">
-        <v>46720</v>
+        <v>126.991</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A212" s="2">
+        <v>46230</v>
       </c>
       <c r="B212" t="s">
         <v>191</v>
       </c>
       <c r="C212" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D212">
-        <v>35.2819553</v>
+        <v>34.940696799999998</v>
       </c>
       <c r="E212">
-        <v>127.2919175</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="4">
-        <v>46730</v>
+        <v>127.6958882</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A213" s="2">
+        <v>46710</v>
       </c>
       <c r="B213" t="s">
         <v>191</v>
       </c>
       <c r="C213" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D213">
-        <v>35.202494700000003</v>
+        <v>35.3211394</v>
       </c>
       <c r="E213">
-        <v>127.46265339999999</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="4">
-        <v>46750</v>
+        <v>126.9881673</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A214" s="2">
+        <v>46720</v>
       </c>
       <c r="B214" t="s">
         <v>191</v>
       </c>
       <c r="C214" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D214">
-        <v>34.760373700000002</v>
+        <v>35.2819553</v>
       </c>
       <c r="E214">
-        <v>127.66222209999999</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" s="4">
-        <v>46770</v>
+        <v>127.2919175</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A215" s="2">
+        <v>46730</v>
       </c>
       <c r="B215" t="s">
         <v>191</v>
       </c>
       <c r="C215" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D215">
-        <v>34.611221899999997</v>
+        <v>35.202494700000003</v>
       </c>
       <c r="E215">
-        <v>127.284978</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" s="4">
-        <v>46780</v>
+        <v>127.46265339999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A216" s="2">
+        <v>46750</v>
       </c>
       <c r="B216" t="s">
         <v>191</v>
       </c>
       <c r="C216" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D216">
-        <v>34.771456299999997</v>
+        <v>34.760373700000002</v>
       </c>
       <c r="E216">
-        <v>127.0798944</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" s="4">
-        <v>46790</v>
+        <v>127.66222209999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A217" s="2">
+        <v>46770</v>
       </c>
       <c r="B217" t="s">
         <v>191</v>
       </c>
       <c r="C217" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D217">
-        <v>35.064502900000001</v>
+        <v>34.611221899999997</v>
       </c>
       <c r="E217">
-        <v>126.98647990000001</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" s="4">
-        <v>46800</v>
+        <v>127.284978</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A218" s="2">
+        <v>46780</v>
       </c>
       <c r="B218" t="s">
         <v>191</v>
       </c>
       <c r="C218" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D218">
-        <v>34.681685600000002</v>
+        <v>34.771456299999997</v>
       </c>
       <c r="E218">
-        <v>126.90692780000001</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" s="4">
-        <v>46810</v>
+        <v>127.0798944</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A219" s="2">
+        <v>46790</v>
       </c>
       <c r="B219" t="s">
         <v>191</v>
       </c>
       <c r="C219" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D219">
-        <v>34.642077399999998</v>
+        <v>35.064502900000001</v>
       </c>
       <c r="E219">
-        <v>126.767261</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" s="4">
-        <v>46820</v>
+        <v>126.98647990000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A220" s="2">
+        <v>46800</v>
       </c>
       <c r="B220" t="s">
         <v>191</v>
       </c>
       <c r="C220" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D220">
-        <v>34.573251599999999</v>
+        <v>34.681685600000002</v>
       </c>
       <c r="E220">
-        <v>126.59892739999999</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" s="4">
-        <v>46830</v>
+        <v>126.90692780000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A221" s="2">
+        <v>46810</v>
       </c>
       <c r="B221" t="s">
         <v>191</v>
       </c>
       <c r="C221" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D221">
-        <v>34.800168499999998</v>
+        <v>34.642077399999998</v>
       </c>
       <c r="E221">
-        <v>126.6967918</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222" s="4">
-        <v>46840</v>
+        <v>126.767261</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A222" s="2">
+        <v>46820</v>
       </c>
       <c r="B222" t="s">
         <v>191</v>
       </c>
       <c r="C222" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D222">
-        <v>34.990454199999988</v>
+        <v>34.573251599999999</v>
       </c>
       <c r="E222">
-        <v>126.48168560000001</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A223" s="4">
-        <v>46860</v>
+        <v>126.59892739999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A223" s="2">
+        <v>46830</v>
       </c>
       <c r="B223" t="s">
         <v>191</v>
       </c>
       <c r="C223" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D223">
-        <v>35.065939899999996</v>
+        <v>34.800168499999998</v>
       </c>
       <c r="E223">
-        <v>126.51655239999999</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224" s="4">
-        <v>46870</v>
+        <v>126.6967918</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A224" s="2">
+        <v>46840</v>
       </c>
       <c r="B224" t="s">
         <v>191</v>
       </c>
       <c r="C224" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D224">
-        <v>35.277171899999999</v>
+        <v>34.990454199999988</v>
       </c>
       <c r="E224">
-        <v>126.5119874</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225" s="4">
-        <v>46880</v>
+        <v>126.48168560000001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A225" s="2">
+        <v>46860</v>
       </c>
       <c r="B225" t="s">
         <v>191</v>
       </c>
       <c r="C225" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D225">
-        <v>35.301833299999998</v>
+        <v>35.065939899999996</v>
       </c>
       <c r="E225">
-        <v>126.7848541</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A226" s="4">
-        <v>46890</v>
+        <v>126.51655239999999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A226" s="2">
+        <v>46870</v>
       </c>
       <c r="B226" t="s">
         <v>191</v>
       </c>
       <c r="C226" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D226">
-        <v>34.3110596</v>
+        <v>35.277171899999999</v>
       </c>
       <c r="E226">
-        <v>126.7550541</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A227" s="4">
-        <v>46900</v>
+        <v>126.5119874</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A227" s="2">
+        <v>46880</v>
       </c>
       <c r="B227" t="s">
         <v>191</v>
       </c>
       <c r="C227" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D227">
-        <v>34.486871200000003</v>
+        <v>35.301833299999998</v>
       </c>
       <c r="E227">
-        <v>126.2634853</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A228" s="4">
-        <v>46910</v>
+        <v>126.7848541</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A228" s="2">
+        <v>46890</v>
       </c>
       <c r="B228" t="s">
         <v>191</v>
       </c>
       <c r="C228" t="s">
+        <v>213</v>
+      </c>
+      <c r="D228">
+        <v>34.3110596</v>
+      </c>
+      <c r="E228">
+        <v>126.7550541</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A229" s="2">
+        <v>46900</v>
+      </c>
+      <c r="B229" t="s">
+        <v>191</v>
+      </c>
+      <c r="C229" t="s">
+        <v>214</v>
+      </c>
+      <c r="D229">
+        <v>34.486871200000003</v>
+      </c>
+      <c r="E229">
+        <v>126.2634853</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A230" s="2">
+        <v>46910</v>
+      </c>
+      <c r="B230" t="s">
+        <v>191</v>
+      </c>
+      <c r="C230" t="s">
         <v>215</v>
       </c>
-      <c r="D228">
+      <c r="D230">
         <v>34.827331999999998</v>
       </c>
-      <c r="E228">
+      <c r="E230">
         <v>126.101074</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A229" s="4">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A231" s="2">
         <v>47111</v>
-      </c>
-      <c r="B229" t="s">
-        <v>216</v>
-      </c>
-      <c r="C229" t="s">
-        <v>217</v>
-      </c>
-      <c r="D229">
-        <v>36.008628299999998</v>
-      </c>
-      <c r="E229">
-        <v>129.35923059999999</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A230" s="4">
-        <v>47113</v>
-      </c>
-      <c r="B230" t="s">
-        <v>216</v>
-      </c>
-      <c r="C230" t="s">
-        <v>218</v>
-      </c>
-      <c r="D230">
-        <v>36.041846499999998</v>
-      </c>
-      <c r="E230">
-        <v>129.36564509999999</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" s="4">
-        <v>47130</v>
       </c>
       <c r="B231" t="s">
         <v>216</v>
       </c>
       <c r="C231" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D231">
-        <v>35.8561719</v>
+        <v>36.008628299999998</v>
       </c>
       <c r="E231">
-        <v>129.22474769999999</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A232" s="4">
-        <v>47150</v>
+        <v>129.35923059999999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A232" s="2">
+        <v>47113</v>
       </c>
       <c r="B232" t="s">
         <v>216</v>
       </c>
       <c r="C232" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D232">
-        <v>36.139839299999998</v>
+        <v>36.041846499999998</v>
       </c>
       <c r="E232">
-        <v>128.11359469999999</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" s="4">
-        <v>47170</v>
+        <v>129.36564509999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A233" s="2">
+        <v>47130</v>
       </c>
       <c r="B233" t="s">
         <v>216</v>
       </c>
       <c r="C233" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D233">
-        <v>36.568354300000003</v>
+        <v>35.8561719</v>
       </c>
       <c r="E233">
-        <v>128.72935699999999</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A234" s="4">
-        <v>47190</v>
+        <v>129.22474769999999</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A234" s="2">
+        <v>47150</v>
       </c>
       <c r="B234" t="s">
         <v>216</v>
       </c>
       <c r="C234" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D234">
-        <v>36.119484999999997</v>
+        <v>36.139839299999998</v>
       </c>
       <c r="E234">
-        <v>128.3445734</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A235" s="4">
-        <v>47210</v>
+        <v>128.11359469999999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A235" s="2">
+        <v>47170</v>
       </c>
       <c r="B235" t="s">
         <v>216</v>
       </c>
       <c r="C235" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D235">
-        <v>36.805685799999999</v>
+        <v>36.568354300000003</v>
       </c>
       <c r="E235">
-        <v>128.62405509999999</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A236" s="4">
-        <v>47230</v>
+        <v>128.72935699999999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A236" s="2">
+        <v>47190</v>
       </c>
       <c r="B236" t="s">
         <v>216</v>
       </c>
       <c r="C236" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D236">
-        <v>35.973291499999988</v>
+        <v>36.119484999999997</v>
       </c>
       <c r="E236">
-        <v>128.93854930000001</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A237" s="4">
-        <v>47250</v>
+        <v>128.3445734</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A237" s="2">
+        <v>47210</v>
       </c>
       <c r="B237" t="s">
         <v>216</v>
       </c>
       <c r="C237" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D237">
-        <v>36.410946600000003</v>
+        <v>36.805685799999999</v>
       </c>
       <c r="E237">
-        <v>128.15908279999999</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A238" s="4">
-        <v>47280</v>
+        <v>128.62405509999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A238" s="2">
+        <v>47230</v>
       </c>
       <c r="B238" t="s">
         <v>216</v>
       </c>
       <c r="C238" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D238">
-        <v>36.586148000000001</v>
+        <v>35.973291499999988</v>
       </c>
       <c r="E238">
-        <v>128.1867972</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A239" s="4">
-        <v>47290</v>
+        <v>128.93854930000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A239" s="2">
+        <v>47250</v>
       </c>
       <c r="B239" t="s">
         <v>216</v>
       </c>
       <c r="C239" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D239">
-        <v>35.825055499999998</v>
+        <v>36.410946600000003</v>
       </c>
       <c r="E239">
-        <v>128.7415441</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A240" s="4">
-        <v>47720</v>
+        <v>128.15908279999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A240" s="2">
+        <v>47280</v>
       </c>
       <c r="B240" t="s">
         <v>216</v>
       </c>
       <c r="C240" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D240">
-        <v>36.242835499999998</v>
+        <v>36.586148000000001</v>
       </c>
       <c r="E240">
-        <v>128.57277020000001</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A241" s="4">
-        <v>47730</v>
+        <v>128.1867972</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A241" s="2">
+        <v>47290</v>
       </c>
       <c r="B241" t="s">
         <v>216</v>
       </c>
       <c r="C241" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D241">
-        <v>36.352657600000001</v>
+        <v>35.825055499999998</v>
       </c>
       <c r="E241">
-        <v>128.6970053</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242" s="4">
-        <v>47750</v>
+        <v>128.7415441</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A242" s="2">
+        <v>47720</v>
       </c>
       <c r="B242" t="s">
         <v>216</v>
       </c>
       <c r="C242" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D242">
-        <v>36.666655800000001</v>
+        <v>36.242835499999998</v>
       </c>
       <c r="E242">
-        <v>129.11240069999999</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A243" s="4">
-        <v>47770</v>
+        <v>128.57277020000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A243" s="2">
+        <v>47730</v>
       </c>
       <c r="B243" t="s">
         <v>216</v>
       </c>
       <c r="C243" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D243">
-        <v>36.415079899999988</v>
+        <v>36.352657600000001</v>
       </c>
       <c r="E243">
-        <v>129.3659681</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A244" s="4">
-        <v>47820</v>
+        <v>128.6970053</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A244" s="2">
+        <v>47750</v>
       </c>
       <c r="B244" t="s">
         <v>216</v>
       </c>
       <c r="C244" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D244">
-        <v>35.647270599999999</v>
+        <v>36.666655800000001</v>
       </c>
       <c r="E244">
-        <v>128.7339107</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A245" s="4">
-        <v>47830</v>
+        <v>129.11240069999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A245" s="2">
+        <v>47760</v>
       </c>
       <c r="B245" t="s">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="C245" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="D245">
-        <v>35.726141499999997</v>
+        <v>36.666655800000001</v>
       </c>
       <c r="E245">
-        <v>128.26295300000001</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A246" s="4">
-        <v>47840</v>
+        <v>129.11240069999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A246" s="2">
+        <v>47770</v>
       </c>
       <c r="B246" t="s">
         <v>216</v>
       </c>
       <c r="C246" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D246">
-        <v>35.919007899999997</v>
+        <v>36.415079899999988</v>
       </c>
       <c r="E246">
-        <v>128.28297380000001</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A247" s="4">
-        <v>47850</v>
+        <v>129.3659681</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A247" s="2">
+        <v>47820</v>
       </c>
       <c r="B247" t="s">
         <v>216</v>
       </c>
       <c r="C247" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D247">
-        <v>35.995305899999998</v>
+        <v>35.647270599999999</v>
       </c>
       <c r="E247">
-        <v>128.40154340000001</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A248" s="4">
-        <v>47900</v>
+        <v>128.7339107</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A248" s="2">
+        <v>47830</v>
       </c>
       <c r="B248" t="s">
         <v>216</v>
       </c>
       <c r="C248" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D248">
-        <v>36.657700400000003</v>
+        <v>35.726141499999997</v>
       </c>
       <c r="E248">
-        <v>128.4528808</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A249" s="4">
-        <v>47920</v>
+        <v>128.26295300000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A249" s="2">
+        <v>47840</v>
       </c>
       <c r="B249" t="s">
         <v>216</v>
       </c>
       <c r="C249" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D249">
-        <v>36.893093299999997</v>
+        <v>35.919007899999997</v>
       </c>
       <c r="E249">
-        <v>128.73237520000001</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A250" s="4">
-        <v>47930</v>
+        <v>128.28297380000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A250" s="2">
+        <v>47850</v>
       </c>
       <c r="B250" t="s">
         <v>216</v>
       </c>
       <c r="C250" t="s">
+        <v>235</v>
+      </c>
+      <c r="D250">
+        <v>35.995305899999998</v>
+      </c>
+      <c r="E250">
+        <v>128.40154340000001</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A251" s="2">
+        <v>47900</v>
+      </c>
+      <c r="B251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C251" t="s">
+        <v>236</v>
+      </c>
+      <c r="D251">
+        <v>36.657700400000003</v>
+      </c>
+      <c r="E251">
+        <v>128.4528808</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A252" s="2">
+        <v>47920</v>
+      </c>
+      <c r="B252" t="s">
+        <v>216</v>
+      </c>
+      <c r="C252" t="s">
+        <v>237</v>
+      </c>
+      <c r="D252">
+        <v>36.893093299999997</v>
+      </c>
+      <c r="E252">
+        <v>128.73237520000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A253" s="2">
+        <v>47930</v>
+      </c>
+      <c r="B253" t="s">
+        <v>216</v>
+      </c>
+      <c r="C253" t="s">
         <v>238</v>
       </c>
-      <c r="D250">
-        <v>37.505369000000002</v>
-      </c>
-      <c r="E250">
-        <v>130.9127039</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A251" s="4">
+      <c r="D253">
+        <v>36.9930661</v>
+      </c>
+      <c r="E253">
+        <v>129.4004195</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A254" s="2">
         <v>48110</v>
-      </c>
-      <c r="B251" t="s">
-        <v>239</v>
-      </c>
-      <c r="C251" t="s">
-        <v>240</v>
-      </c>
-      <c r="D251">
-        <v>35.2538433</v>
-      </c>
-      <c r="E251">
-        <v>128.64026089999999</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A252" s="4">
-        <v>48121</v>
-      </c>
-      <c r="B252" t="s">
-        <v>239</v>
-      </c>
-      <c r="C252" t="s">
-        <v>241</v>
-      </c>
-      <c r="D252">
-        <v>35.2538433</v>
-      </c>
-      <c r="E252">
-        <v>128.64026089999999</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A253" s="4">
-        <v>48123</v>
-      </c>
-      <c r="B253" t="s">
-        <v>239</v>
-      </c>
-      <c r="C253" t="s">
-        <v>242</v>
-      </c>
-      <c r="D253">
-        <v>35.198465900000002</v>
-      </c>
-      <c r="E253">
-        <v>128.70271779999999</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A254" s="4">
-        <v>48125</v>
       </c>
       <c r="B254" t="s">
         <v>239</v>
       </c>
       <c r="C254" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D254">
-        <v>35.196910699999997</v>
+        <v>35.460599999999999</v>
       </c>
       <c r="E254">
-        <v>128.5678853</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A255" s="4">
-        <v>48127</v>
+        <v>128.2132</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A255" s="2">
+        <v>48121</v>
       </c>
       <c r="B255" t="s">
         <v>239</v>
       </c>
       <c r="C255" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D255">
-        <v>35.2206349</v>
+        <v>35.2538433</v>
       </c>
       <c r="E255">
-        <v>128.5795296</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A256" s="4">
-        <v>48129</v>
+        <v>128.64026089999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A256" s="2">
+        <v>48123</v>
       </c>
       <c r="B256" t="s">
         <v>239</v>
       </c>
       <c r="C256" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D256">
-        <v>35.133025099999998</v>
+        <v>35.198465900000002</v>
       </c>
       <c r="E256">
-        <v>128.71003809999999</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A257" s="4">
-        <v>48151</v>
+        <v>128.70271779999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A257" s="2">
+        <v>48125</v>
       </c>
       <c r="B257" t="s">
         <v>239</v>
       </c>
       <c r="C257" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D257">
         <v>35.196910699999997</v>
@@ -5625,451 +5676,501 @@
         <v>128.5678853</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A258" s="4">
-        <v>48153</v>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A258" s="2">
+        <v>48127</v>
       </c>
       <c r="B258" t="s">
         <v>239</v>
       </c>
       <c r="C258" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D258">
-        <v>35.213515999999998</v>
+        <v>35.2206349</v>
       </c>
       <c r="E258">
-        <v>128.581433</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A259" s="4">
-        <v>48160</v>
+        <v>128.5795296</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A259" s="2">
+        <v>48129</v>
       </c>
       <c r="B259" t="s">
         <v>239</v>
       </c>
       <c r="C259" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D259">
-        <v>35.213515999999998</v>
+        <v>35.133025099999998</v>
       </c>
       <c r="E259">
-        <v>128.581433</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A260" s="4">
-        <v>48170</v>
+        <v>128.71003809999999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A260" s="2">
+        <v>48151</v>
       </c>
       <c r="B260" t="s">
         <v>239</v>
       </c>
       <c r="C260" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D260">
-        <v>35.179981699999999</v>
+        <v>35.213515999999998</v>
       </c>
       <c r="E260">
-        <v>128.10762130000001</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A261" s="4">
-        <v>48190</v>
+        <v>128.581433</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A261" s="2">
+        <v>48153</v>
       </c>
       <c r="B261" t="s">
         <v>239</v>
       </c>
       <c r="C261" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D261">
-        <v>35.133025099999998</v>
+        <v>35.213515999999998</v>
       </c>
       <c r="E261">
-        <v>128.71003809999999</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A262" s="4">
-        <v>48220</v>
+        <v>128.581433</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A262" s="2">
+        <v>48160</v>
       </c>
       <c r="B262" t="s">
         <v>239</v>
       </c>
       <c r="C262" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D262">
-        <v>34.854422700000001</v>
+        <v>35.213515999999998</v>
       </c>
       <c r="E262">
-        <v>128.43318199999999</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A263" s="4">
-        <v>48240</v>
+        <v>128.581433</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A263" s="2">
+        <v>48170</v>
       </c>
       <c r="B263" t="s">
         <v>239</v>
       </c>
       <c r="C263" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D263">
-        <v>35.003778799999999</v>
+        <v>35.179981699999999</v>
       </c>
       <c r="E263">
-        <v>128.06418500000001</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A264" s="4">
-        <v>48250</v>
+        <v>128.10762130000001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A264" s="2">
+        <v>48190</v>
       </c>
       <c r="B264" t="s">
         <v>239</v>
       </c>
       <c r="C264" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D264">
-        <v>35.228545099999998</v>
+        <v>35.133025099999998</v>
       </c>
       <c r="E264">
-        <v>128.88935169999999</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A265" s="4">
-        <v>48270</v>
+        <v>128.71003809999999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A265" s="2">
+        <v>48220</v>
       </c>
       <c r="B265" t="s">
         <v>239</v>
       </c>
       <c r="C265" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D265">
-        <v>35.503759799999997</v>
+        <v>34.854422700000001</v>
       </c>
       <c r="E265">
-        <v>128.7464415</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A266" s="4">
-        <v>48310</v>
+        <v>128.43318199999999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A266" s="2">
+        <v>48240</v>
       </c>
       <c r="B266" t="s">
         <v>239</v>
       </c>
       <c r="C266" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D266">
-        <v>34.880642700000003</v>
+        <v>35.003778799999999</v>
       </c>
       <c r="E266">
-        <v>128.62108240000001</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A267" s="4">
-        <v>48330</v>
+        <v>128.06418500000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A267" s="2">
+        <v>48250</v>
       </c>
       <c r="B267" t="s">
         <v>239</v>
       </c>
       <c r="C267" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D267">
-        <v>35.3350072</v>
+        <v>35.228545099999998</v>
       </c>
       <c r="E267">
-        <v>129.03716890000001</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A268" s="4">
-        <v>48720</v>
+        <v>128.88935169999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A268" s="2">
+        <v>48270</v>
       </c>
       <c r="B268" t="s">
         <v>239</v>
       </c>
       <c r="C268" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D268">
-        <v>35.322189600000002</v>
+        <v>35.503759799999997</v>
       </c>
       <c r="E268">
-        <v>128.26165800000001</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A269" s="4">
-        <v>48730</v>
+        <v>128.7464415</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A269" s="2">
+        <v>48310</v>
       </c>
       <c r="B269" t="s">
         <v>239</v>
       </c>
       <c r="C269" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D269">
-        <v>35.272559100000002</v>
+        <v>34.880642700000003</v>
       </c>
       <c r="E269">
-        <v>128.40647970000001</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A270" s="4">
-        <v>48740</v>
+        <v>128.62108240000001</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A270" s="2">
+        <v>48330</v>
       </c>
       <c r="B270" t="s">
         <v>239</v>
       </c>
       <c r="C270" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D270">
-        <v>35.544556300000004</v>
+        <v>35.3350072</v>
       </c>
       <c r="E270">
-        <v>128.4922143</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A271" s="4">
-        <v>48820</v>
+        <v>129.03716890000001</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A271" s="2">
+        <v>48720</v>
       </c>
       <c r="B271" t="s">
         <v>239</v>
       </c>
       <c r="C271" t="s">
-        <v>137</v>
+        <v>257</v>
       </c>
       <c r="D271">
-        <v>34.973148999999999</v>
+        <v>35.322189600000002</v>
       </c>
       <c r="E271">
-        <v>128.3222456</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A272" s="4">
-        <v>48840</v>
+        <v>128.26165800000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A272" s="2">
+        <v>48730</v>
       </c>
       <c r="B272" t="s">
         <v>239</v>
       </c>
       <c r="C272" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D272">
-        <v>34.837672099999999</v>
+        <v>35.272559100000002</v>
       </c>
       <c r="E272">
-        <v>127.8924234</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A273" s="4">
-        <v>48850</v>
+        <v>128.40647970000001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A273" s="2">
+        <v>48740</v>
       </c>
       <c r="B273" t="s">
         <v>239</v>
       </c>
       <c r="C273" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D273">
-        <v>35.067210799999998</v>
+        <v>35.544556300000004</v>
       </c>
       <c r="E273">
-        <v>127.7512687</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A274" s="4">
-        <v>48860</v>
+        <v>128.4922143</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A274" s="2">
+        <v>48820</v>
       </c>
       <c r="B274" t="s">
         <v>239</v>
       </c>
       <c r="C274" t="s">
-        <v>262</v>
+        <v>137</v>
       </c>
       <c r="D274">
-        <v>35.415588499999998</v>
+        <v>34.973148999999999</v>
       </c>
       <c r="E274">
-        <v>127.87349810000001</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A275" s="4">
-        <v>48870</v>
+        <v>128.3222456</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A275" s="2">
+        <v>48840</v>
       </c>
       <c r="B275" t="s">
         <v>239</v>
       </c>
       <c r="C275" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D275">
-        <v>35.520461399999988</v>
+        <v>34.837672099999999</v>
       </c>
       <c r="E275">
-        <v>127.7251763</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A276" s="4">
-        <v>48880</v>
+        <v>127.8924234</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A276" s="2">
+        <v>48850</v>
       </c>
       <c r="B276" t="s">
         <v>239</v>
       </c>
       <c r="C276" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D276">
-        <v>35.686722899999999</v>
+        <v>35.067210799999998</v>
       </c>
       <c r="E276">
-        <v>127.9095155</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A277" s="4">
-        <v>48890</v>
+        <v>127.7512687</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A277" s="2">
+        <v>48860</v>
       </c>
       <c r="B277" t="s">
         <v>239</v>
       </c>
       <c r="C277" t="s">
+        <v>262</v>
+      </c>
+      <c r="D277">
+        <v>35.415588499999998</v>
+      </c>
+      <c r="E277">
+        <v>127.87349810000001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A278" s="2">
+        <v>48870</v>
+      </c>
+      <c r="B278" t="s">
+        <v>239</v>
+      </c>
+      <c r="C278" t="s">
+        <v>263</v>
+      </c>
+      <c r="D278">
+        <v>35.520461399999988</v>
+      </c>
+      <c r="E278">
+        <v>127.7251763</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A279" s="2">
+        <v>48880</v>
+      </c>
+      <c r="B279" t="s">
+        <v>239</v>
+      </c>
+      <c r="C279" t="s">
+        <v>264</v>
+      </c>
+      <c r="D279">
+        <v>35.686722899999999</v>
+      </c>
+      <c r="E279">
+        <v>127.9095155</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A280" s="2">
+        <v>48890</v>
+      </c>
+      <c r="B280" t="s">
+        <v>239</v>
+      </c>
+      <c r="C280" t="s">
         <v>265</v>
       </c>
-      <c r="D277">
+      <c r="D280">
         <v>35.566575800000003</v>
       </c>
-      <c r="E277">
+      <c r="E280">
         <v>128.16579949999999</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A278" s="4">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A281" s="2">
         <v>49110</v>
-      </c>
-      <c r="B278" t="s">
-        <v>266</v>
-      </c>
-      <c r="C278" t="s">
-        <v>267</v>
-      </c>
-      <c r="D278">
-        <v>33.499621300000001</v>
-      </c>
-      <c r="E278">
-        <v>126.5311884</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A279" s="4">
-        <v>49130</v>
-      </c>
-      <c r="B279" t="s">
-        <v>266</v>
-      </c>
-      <c r="C279" t="s">
-        <v>268</v>
-      </c>
-      <c r="D279">
-        <v>33.254120499999999</v>
-      </c>
-      <c r="E279">
-        <v>126.560076</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A280" s="4">
-        <v>49710</v>
-      </c>
-      <c r="B280" t="s">
-        <v>266</v>
-      </c>
-      <c r="C280" t="s">
-        <v>269</v>
-      </c>
-      <c r="D280">
-        <v>33.333333000000003</v>
-      </c>
-      <c r="E280">
-        <v>126.35</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A281" s="4">
-        <v>49720</v>
       </c>
       <c r="B281" t="s">
         <v>266</v>
       </c>
       <c r="C281" t="s">
+        <v>267</v>
+      </c>
+      <c r="D281">
+        <v>33.499621300000001</v>
+      </c>
+      <c r="E281">
+        <v>126.5311884</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A282" s="2">
+        <v>49130</v>
+      </c>
+      <c r="B282" t="s">
+        <v>266</v>
+      </c>
+      <c r="C282" t="s">
+        <v>268</v>
+      </c>
+      <c r="D282">
+        <v>33.254120499999999</v>
+      </c>
+      <c r="E282">
+        <v>126.560076</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A283" s="2">
+        <v>49710</v>
+      </c>
+      <c r="B283" t="s">
+        <v>266</v>
+      </c>
+      <c r="C283" t="s">
+        <v>269</v>
+      </c>
+      <c r="D283">
+        <v>33.333333000000003</v>
+      </c>
+      <c r="E283">
+        <v>126.35</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A284" s="2">
+        <v>49720</v>
+      </c>
+      <c r="B284" t="s">
+        <v>266</v>
+      </c>
+      <c r="C284" t="s">
         <v>270</v>
       </c>
-      <c r="D281">
+      <c r="D284">
         <v>33.254120499999999</v>
       </c>
-      <c r="E281">
+      <c r="E284">
         <v>126.560076</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A282" s="4">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A285" s="2">
         <v>50110</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B285" t="s">
         <v>271</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C285" t="s">
         <v>267</v>
       </c>
-      <c r="D282">
+      <c r="D285">
         <v>33.499621300000001</v>
       </c>
-      <c r="E282">
+      <c r="E285">
         <v>126.5311884</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A283" s="4">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A286" s="2">
         <v>50130</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B286" t="s">
         <v>271</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C286" t="s">
         <v>268</v>
       </c>
-      <c r="D283">
+      <c r="D286">
         <v>33.254120499999999</v>
       </c>
-      <c r="E283">
+      <c r="E286">
         <v>126.560076</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>